--- a/dataToCompare/Computo_Ripianificato_TEST_SEC.xlsx
+++ b/dataToCompare/Computo_Ripianificato_TEST_SEC.xlsx
@@ -20075,7 +20075,7 @@
         <v>0</v>
       </c>
       <c r="K297" t="n" s="284">
-        <v>10.992700000000001</v>
+        <v>11.3541</v>
       </c>
       <c r="L297" t="s" s="285">
         <v>0</v>
@@ -21659,7 +21659,7 @@
         <v>0</v>
       </c>
       <c r="K333" t="n" s="788">
-        <v>0.4019</v>
+        <v>0.7633</v>
       </c>
       <c r="L333" t="s" s="789">
         <v>0</v>
